--- a/sputnik/personal/ee/12ee.xlsx
+++ b/sputnik/personal/ee/12ee.xlsx
@@ -16,23 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -40,6 +31,24 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -47,9 +56,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +75,15 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
@@ -108,10 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -121,15 +138,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -437,10 +461,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -451,191 +475,112 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
+      <c r="H1" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>42980</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>3930</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>43728</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>4166</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f>SUM(C3,-C2)</f>
         <v>236</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>4.49</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="9">
         <f>PRODUCT(D3,E3)</f>
         <v>1059.6400000000001</v>
       </c>
+      <c r="G3" s="10">
+        <v>1059.6400000000001</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1060</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1059.6400000000001</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1060</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="H9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="6"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10">
+        <f>SUM(H4,-G4)</f>
+        <v>0.35999999999989996</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/12ee.xlsx
+++ b/sputnik/personal/ee/12ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -461,10 +461,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -551,20 +551,32 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5" t="s">
-        <v>9</v>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>43927</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4365</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUM(C4,-C3)</f>
+        <v>199</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="F4" s="9">
+        <f>PRODUCT(D4,E4)</f>
+        <v>893.51</v>
       </c>
       <c r="G4" s="10">
-        <v>1059.6400000000001</v>
+        <v>893.51</v>
       </c>
       <c r="H4" s="10">
-        <v>1060</v>
+        <v>894</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -572,15 +584,36 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="10">
+        <f>SUM(G2:G4)</f>
+        <v>1953.15</v>
+      </c>
+      <c r="H5" s="10">
+        <f>SUM(H2:H4)</f>
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10">
-        <f>SUM(H4,-G4)</f>
-        <v>0.35999999999989996</v>
-      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10">
+        <f>SUM(H5,-G5)</f>
+        <v>0.84999999999990905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/12ee.xlsx
+++ b/sputnik/personal/ee/12ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -461,10 +461,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -580,21 +580,31 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5" t="s">
-        <v>9</v>
+      <c r="A5" s="3">
+        <v>44042</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4641</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUM(C5,-C4)</f>
+        <v>276</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F5" s="9">
+        <f>PRODUCT(D5,E5)</f>
+        <v>1299.96</v>
       </c>
       <c r="G5" s="10">
-        <f>SUM(G2:G4)</f>
-        <v>1953.15</v>
+        <v>1299.96</v>
       </c>
       <c r="H5" s="10">
-        <f>SUM(H2:H4)</f>
-        <v>1954</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -602,18 +612,36 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="10">
+        <f>SUM(G2:G5)</f>
+        <v>3253.11</v>
+      </c>
+      <c r="H6" s="10">
+        <f>SUM(H2:H5)</f>
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10">
-        <f>SUM(H5,-G5)</f>
-        <v>0.84999999999990905</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10">
+        <f>SUM(H6,-G6)</f>
+        <v>3.8899999999998727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/12ee.xlsx
+++ b/sputnik/personal/ee/12ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -461,10 +461,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -590,15 +590,15 @@
         <v>4641</v>
       </c>
       <c r="D5" s="4">
-        <f>SUM(C5,-C4)</f>
-        <v>276</v>
+        <f>SUM(C5,-C3)</f>
+        <v>475</v>
       </c>
       <c r="E5" s="4">
         <v>4.71</v>
       </c>
       <c r="F5" s="9">
         <f>PRODUCT(D5,E5)</f>
-        <v>1299.96</v>
+        <v>2237.25</v>
       </c>
       <c r="G5" s="10">
         <v>1299.96</v>
@@ -608,21 +608,31 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5" t="s">
-        <v>9</v>
+      <c r="A6" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4791</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUM(C6,-C5)</f>
+        <v>150</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="9">
+        <f>PRODUCT(D6,E6)</f>
+        <v>706.5</v>
       </c>
       <c r="G6" s="10">
-        <f>SUM(G2:G5)</f>
-        <v>3253.11</v>
+        <v>706.5</v>
       </c>
       <c r="H6" s="10">
-        <f>SUM(H2:H5)</f>
-        <v>3257</v>
+        <v>674</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -630,18 +640,36 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="10">
+        <f>SUM(G2:G6)</f>
+        <v>3959.61</v>
+      </c>
+      <c r="H7" s="10">
+        <f>SUM(H2:H6)</f>
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10">
-        <f>SUM(H6,-G6)</f>
-        <v>3.8899999999998727</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
+        <f>SUM(H7,-G7)</f>
+        <v>-28.610000000000127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/12ee.xlsx
+++ b/sputnik/personal/ee/12ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>остаток</t>
+  </si>
+  <si>
+    <t>нач-ны пени 132д.</t>
   </si>
 </sst>
 </file>
@@ -461,10 +464,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -636,45 +639,125 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5" t="s">
+      <c r="A7" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6489</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUM(C7,-C6)</f>
+        <v>1698</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F7" s="9">
+        <f>PRODUCT(D7,E7)</f>
+        <v>7997.58</v>
+      </c>
+      <c r="G7" s="10">
+        <v>7997.58</v>
+      </c>
+      <c r="H7" s="10">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>736</v>
+      </c>
+      <c r="G8" s="10">
+        <v>736</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>44188</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6990</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUM(C9,-C7)</f>
+        <v>501</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F9" s="9">
+        <f>PRODUCT(D9,E9)</f>
+        <v>2359.71</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2359.71</v>
+      </c>
+      <c r="H9" s="10">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="10">
-        <f>SUM(G2:G6)</f>
-        <v>3959.61</v>
-      </c>
-      <c r="H7" s="10">
-        <f>SUM(H2:H6)</f>
-        <v>3931</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5" t="s">
+      <c r="G10" s="10">
+        <f>SUM(G2:G9)</f>
+        <v>15052.900000000001</v>
+      </c>
+      <c r="H10" s="10">
+        <f>SUM(H2:H9)</f>
+        <v>14291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10">
-        <f>SUM(H7,-G7)</f>
-        <v>-28.610000000000127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
+        <f>SUM(H10,-G10)</f>
+        <v>-761.90000000000146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/12ee.xlsx
+++ b/sputnik/personal/ee/12ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -45,13 +45,13 @@
     <t>оплачено</t>
   </si>
   <si>
-    <t>итого за период</t>
-  </si>
-  <si>
     <t>остаток</t>
   </si>
   <si>
     <t>нач-ны пени 132д.</t>
+  </si>
+  <si>
+    <t>итого</t>
   </si>
 </sst>
 </file>
@@ -94,12 +94,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -144,9 +150,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -157,6 +160,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -464,10 +468,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -485,28 +489,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -522,9 +526,9 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -543,14 +547,14 @@
       <c r="E3" s="4">
         <v>4.49</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <f>PRODUCT(D3,E3)</f>
         <v>1059.6400000000001</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>1059.6400000000001</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>1060</v>
       </c>
     </row>
@@ -571,14 +575,14 @@
       <c r="E4" s="4">
         <v>4.49</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <f>PRODUCT(D4,E4)</f>
         <v>893.51</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>893.51</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>894</v>
       </c>
     </row>
@@ -599,14 +603,14 @@
       <c r="E5" s="4">
         <v>4.71</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <f>PRODUCT(D5,E5)</f>
         <v>2237.25</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>1299.96</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>1303</v>
       </c>
     </row>
@@ -627,7 +631,7 @@
       <c r="E6" s="4">
         <v>4.71</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <f>PRODUCT(D6,E6)</f>
         <v>706.5</v>
       </c>
@@ -655,14 +659,14 @@
       <c r="E7" s="4">
         <v>4.71</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <f>PRODUCT(D7,E7)</f>
         <v>7997.58</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>7997.58</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>8000</v>
       </c>
     </row>
@@ -677,18 +681,18 @@
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="9">
-        <v>736</v>
+      <c r="F8" s="8">
+        <v>735.78</v>
       </c>
       <c r="G8" s="10">
-        <v>736</v>
-      </c>
-      <c r="H8" s="10"/>
+        <v>735.78</v>
+      </c>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -707,52 +711,108 @@
       <c r="E9" s="4">
         <v>4.71</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <f>PRODUCT(D9,E9)</f>
         <v>2359.71</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>2359.71</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>2360</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5" t="s">
+      <c r="A10" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7202</v>
+      </c>
+      <c r="D10" s="4">
+        <f>SUM(C10,-C9)</f>
+        <v>212</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="8">
+        <f>PRODUCT(D10,E10)</f>
+        <v>998.52</v>
+      </c>
+      <c r="G10" s="9">
+        <v>998.52</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>44214</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7435</v>
+      </c>
+      <c r="D11" s="4">
+        <f>SUM(C11,-C10)</f>
+        <v>233</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F11" s="8">
+        <f>PRODUCT(D11,E11)</f>
+        <v>1097.43</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1097.43</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="9">
+        <f>SUM(G3:G11)</f>
+        <v>17148.63</v>
+      </c>
+      <c r="H12" s="9">
+        <f>SUM(H3:H11)</f>
+        <v>16391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="10">
-        <f>SUM(G2:G9)</f>
-        <v>15052.900000000001</v>
-      </c>
-      <c r="H10" s="10">
-        <f>SUM(H2:H9)</f>
-        <v>14291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10">
-        <f>SUM(H10,-G10)</f>
-        <v>-761.90000000000146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10">
+        <f>SUM(H12,-G12)</f>
+        <v>-757.63000000000102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/12ee.xlsx
+++ b/sputnik/personal/ee/12ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -468,10 +468,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -779,40 +779,124 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="8" t="s">
+      <c r="A12" s="3">
+        <v>44242</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8071</v>
+      </c>
+      <c r="D12" s="4">
+        <f>SUM(C12,-C11)</f>
+        <v>636</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f>PRODUCT(D12,E12)</f>
+        <v>2995.56</v>
+      </c>
+      <c r="G12" s="9">
+        <v>2995.56</v>
+      </c>
+      <c r="H12" s="9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>9132</v>
+      </c>
+      <c r="D13" s="4">
+        <f>SUM(C13,-C12)</f>
+        <v>1061</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="8">
+        <f>PRODUCT(D13,E13)</f>
+        <v>4997.3100000000004</v>
+      </c>
+      <c r="G13" s="9">
+        <v>4997.3100000000004</v>
+      </c>
+      <c r="H13" s="9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44294</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9768</v>
+      </c>
+      <c r="D14" s="4">
+        <f>SUM(C14,-C13)</f>
+        <v>636</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f>PRODUCT(D14,E14)</f>
+        <v>2995.56</v>
+      </c>
+      <c r="G14" s="9">
+        <v>2995.56</v>
+      </c>
+      <c r="H14" s="9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="9">
-        <f>SUM(G3:G11)</f>
-        <v>17148.63</v>
-      </c>
-      <c r="H12" s="9">
-        <f>SUM(H3:H11)</f>
-        <v>16391</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5" t="s">
+      <c r="G15" s="9">
+        <f>SUM(G3:G14)</f>
+        <v>28137.060000000005</v>
+      </c>
+      <c r="H15" s="9">
+        <f>SUM(H3:H14)</f>
+        <v>27391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10">
-        <f>SUM(H12,-G12)</f>
-        <v>-757.63000000000102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10">
+        <f>SUM(H15,-G15)</f>
+        <v>-746.06000000000495</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/12ee.xlsx
+++ b/sputnik/personal/ee/12ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -468,10 +468,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -712,7 +712,7 @@
         <v>4.71</v>
       </c>
       <c r="F9" s="8">
-        <f>PRODUCT(D9,E9)</f>
+        <f t="shared" ref="F9:F14" si="0">PRODUCT(D9,E9)</f>
         <v>2359.71</v>
       </c>
       <c r="G9" s="9">
@@ -740,7 +740,7 @@
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f>PRODUCT(D10,E10)</f>
+        <f t="shared" si="0"/>
         <v>998.52</v>
       </c>
       <c r="G10" s="9">
@@ -768,7 +768,7 @@
         <v>4.71</v>
       </c>
       <c r="F11" s="8">
-        <f>PRODUCT(D11,E11)</f>
+        <f t="shared" si="0"/>
         <v>1097.43</v>
       </c>
       <c r="G11" s="9">
@@ -796,7 +796,7 @@
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f>PRODUCT(D12,E12)</f>
+        <f t="shared" si="0"/>
         <v>2995.56</v>
       </c>
       <c r="G12" s="9">
@@ -824,7 +824,7 @@
         <v>4.71</v>
       </c>
       <c r="F13" s="8">
-        <f>PRODUCT(D13,E13)</f>
+        <f t="shared" si="0"/>
         <v>4997.3100000000004</v>
       </c>
       <c r="G13" s="9">
@@ -852,7 +852,7 @@
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f>PRODUCT(D14,E14)</f>
+        <f t="shared" si="0"/>
         <v>2995.56</v>
       </c>
       <c r="G14" s="9">
@@ -863,40 +863,68 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="8" t="s">
-        <v>11</v>
+      <c r="A15" s="3">
+        <v>44368</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>10192</v>
+      </c>
+      <c r="D15" s="4">
+        <f>SUM(C15,-C14)</f>
+        <v>424</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" ref="F15" si="1">PRODUCT(D15,E15)</f>
+        <v>1997.04</v>
       </c>
       <c r="G15" s="9">
-        <f>SUM(G3:G14)</f>
-        <v>28137.060000000005</v>
+        <v>1997.04</v>
       </c>
       <c r="H15" s="9">
-        <f>SUM(H3:H14)</f>
-        <v>27391</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="5" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="9">
+        <f>SUM(G3:G15)</f>
+        <v>30134.100000000006</v>
+      </c>
+      <c r="H16" s="9">
+        <f>SUM(H3:H15)</f>
+        <v>29391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10">
-        <f>SUM(H15,-G15)</f>
-        <v>-746.06000000000495</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10">
+        <f>SUM(H16,-G16)</f>
+        <v>-743.10000000000582</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/12ee.xlsx
+++ b/sputnik/personal/ee/12ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -468,10 +468,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -733,7 +733,7 @@
         <v>7202</v>
       </c>
       <c r="D10" s="4">
-        <f>SUM(C10,-C9)</f>
+        <f t="shared" ref="D10:D16" si="1">SUM(C10,-C9)</f>
         <v>212</v>
       </c>
       <c r="E10" s="4">
@@ -761,7 +761,7 @@
         <v>7435</v>
       </c>
       <c r="D11" s="4">
-        <f>SUM(C11,-C10)</f>
+        <f t="shared" si="1"/>
         <v>233</v>
       </c>
       <c r="E11" s="4">
@@ -789,7 +789,7 @@
         <v>8071</v>
       </c>
       <c r="D12" s="4">
-        <f>SUM(C12,-C11)</f>
+        <f t="shared" si="1"/>
         <v>636</v>
       </c>
       <c r="E12" s="4">
@@ -817,7 +817,7 @@
         <v>9132</v>
       </c>
       <c r="D13" s="4">
-        <f>SUM(C13,-C12)</f>
+        <f t="shared" si="1"/>
         <v>1061</v>
       </c>
       <c r="E13" s="4">
@@ -845,7 +845,7 @@
         <v>9768</v>
       </c>
       <c r="D14" s="4">
-        <f>SUM(C14,-C13)</f>
+        <f t="shared" si="1"/>
         <v>636</v>
       </c>
       <c r="E14" s="4">
@@ -873,14 +873,14 @@
         <v>10192</v>
       </c>
       <c r="D15" s="4">
-        <f>SUM(C15,-C14)</f>
+        <f t="shared" si="1"/>
         <v>424</v>
       </c>
       <c r="E15" s="4">
         <v>4.71</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" ref="F15" si="1">PRODUCT(D15,E15)</f>
+        <f t="shared" ref="F15" si="2">PRODUCT(D15,E15)</f>
         <v>1997.04</v>
       </c>
       <c r="G15" s="9">
@@ -891,40 +891,68 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="8" t="s">
-        <v>11</v>
+      <c r="A16" s="3">
+        <v>44398</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>10595</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="1"/>
+        <v>403</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4.96</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16" si="3">PRODUCT(D16,E16)</f>
+        <v>1998.8799999999999</v>
       </c>
       <c r="G16" s="9">
-        <f>SUM(G3:G15)</f>
-        <v>30134.100000000006</v>
+        <v>1998.88</v>
       </c>
       <c r="H16" s="9">
-        <f>SUM(H3:H15)</f>
-        <v>29391</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="5" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="9">
+        <f>SUM(G3:G16)</f>
+        <v>32132.980000000007</v>
+      </c>
+      <c r="H17" s="9">
+        <f>SUM(H3:H16)</f>
+        <v>31391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10">
-        <f>SUM(H16,-G16)</f>
-        <v>-743.10000000000582</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10">
+        <f>SUM(H17,-G17)</f>
+        <v>-741.98000000000684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/12ee.xlsx
+++ b/sputnik/personal/ee/12ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -468,7 +468,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
@@ -919,40 +919,68 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="8" t="s">
-        <v>11</v>
+      <c r="A17" s="3">
+        <v>44487</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>12144</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" ref="D17" si="4">SUM(C17,-C16)</f>
+        <v>1549</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4.96</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" ref="F17" si="5">PRODUCT(D17,E17)</f>
+        <v>7683.04</v>
       </c>
       <c r="G17" s="9">
-        <f>SUM(G3:G16)</f>
-        <v>32132.980000000007</v>
+        <v>7683.04</v>
       </c>
       <c r="H17" s="9">
-        <f>SUM(H3:H16)</f>
-        <v>31391</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="5" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="9">
+        <f>SUM(G3:G17)</f>
+        <v>39816.020000000004</v>
+      </c>
+      <c r="H18" s="9">
+        <f>SUM(H3:H17)</f>
+        <v>38991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10">
-        <f>SUM(H17,-G17)</f>
-        <v>-741.98000000000684</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10">
+        <f>SUM(H18,-G18)</f>
+        <v>-825.02000000000407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
